--- a/KUPT6AB1.xlsx
+++ b/KUPT6AB1.xlsx
@@ -12,36 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>Inf indus (KUPT6AB1) (TG)</t>
+  </si>
+  <si>
+    <t>KUPT6AB1</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TYPE_AUTRE</t>
+  </si>
+  <si>
     <t>jeudi</t>
   </si>
   <si>
-    <t>Inf indus (KUPT6AB1) (TG)</t>
-  </si>
-  <si>
-    <t>KUPT6AB1</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>TYPE_AUTRE</t>
-  </si>
-  <si>
-    <t>dimanche</t>
-  </si>
-  <si>
-    <t>16:45</t>
-  </si>
-  <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t>Inf indus (KUPT6AB1) (PL)</t>
@@ -53,22 +50,22 @@
     <t>Inf indus (KUPT6AB1)   (TG)</t>
   </si>
   <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>Inf indus (KUPT6AB1)   (PL)</t>
+  </si>
+  <si>
+    <t>7:45</t>
+  </si>
+  <si>
+    <t>Inf indus (KUPT6AB1) /TP (TG)</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>vendredi</t>
-  </si>
-  <si>
-    <t>Inf indus (KUPT6AB1)   (PL)</t>
-  </si>
-  <si>
-    <t>7:45</t>
-  </si>
-  <si>
-    <t>Inf indus (KUPT6AB1) /TP (TG)</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>lundi</t>
   </si>
   <si>
     <t>Inf indus (KUPT6AB1)   (LFo)</t>
@@ -137,7 +134,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>45001.0</v>
+        <v>46097.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -176,7 +173,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>45011.0</v>
+        <v>46107.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>7</v>
@@ -191,7 +188,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>2.0</v>
@@ -215,22 +212,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>45017.0</v>
+        <v>46113.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>2.0</v>
@@ -269,7 +266,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="1">
-        <v>45018.0</v>
+        <v>46114.0</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>7</v>
@@ -277,7 +274,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" t="s" s="0">
@@ -308,22 +305,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="1">
-        <v>45023.0</v>
+        <v>46119.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n" s="0">
         <v>2.0</v>
@@ -339,22 +336,22 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="1">
-        <v>45024.0</v>
+        <v>46120.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n" s="0">
         <v>2.0</v>
@@ -370,7 +367,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" t="s" s="0">
@@ -393,7 +390,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n" s="1">
-        <v>45025.0</v>
+        <v>46121.0</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>7</v>
@@ -401,14 +398,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n" s="0">
         <v>2.0</v>
@@ -432,7 +429,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n" s="1">
-        <v>45029.0</v>
+        <v>46125.0</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>1</v>
@@ -440,14 +437,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="n" s="0">
         <v>2.0</v>
@@ -463,14 +460,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="n" s="0">
         <v>2.0</v>
@@ -486,15 +483,15 @@
     </row>
     <row r="25">
       <c r="A25" t="n" s="1">
-        <v>45033.0</v>
+        <v>46129.0</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" t="s" s="0">
@@ -525,7 +522,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n" s="1">
-        <v>45036.0</v>
+        <v>46132.0</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>1</v>
@@ -533,14 +530,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n" s="0">
         <v>2.0</v>
@@ -564,7 +561,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="1">
-        <v>45050.0</v>
+        <v>46146.0</v>
       </c>
       <c r="B31" t="s" s="0">
         <v>1</v>
@@ -572,14 +569,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n" s="0">
         <v>2.0</v>
@@ -603,22 +600,22 @@
     </row>
     <row r="34">
       <c r="A34" t="n" s="1">
-        <v>45058.0</v>
+        <v>46154.0</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" t="n" s="0">
         <v>2.0</v>
@@ -634,14 +631,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" t="n" s="0">
         <v>2.0</v>
